--- a/biology/Botanique/Funastrum_cynanchoides/Funastrum_cynanchoides.xlsx
+++ b/biology/Botanique/Funastrum_cynanchoides/Funastrum_cynanchoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Funastrum cynanchoides est une espèce de plante à fleurs de la famille des Asclepiadaceae, originaire du sud des États-Unis et du Mexique.
 Elle est parfois appelée Sarcostemma cynanchoides.
@@ -514,12 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante se présente sous la forme de tiges lisses, rampantes, contenant un latex de couleur laiteuse. Ces tiges peuvent atteindre 3 m de longueur et grimpent souvent sur les buissons alentour. Les feuilles, d'environ 6 ou 6,5 cm de long, sont opposées. Assez étroites, ces feuilles peuvent être lancéolées ou presque triangulaires et présentent, près de leur base, une ou plusieurs glandes situées sur la nervure centrale[1].
-Appareil reproducteur
-La floraison a lieu entre avril et août.
-L'inflorescence est une ombelle pouvant atteindre 10 cm de diamètre. Chaque fleur, d'un diamètre de 1 à 1,5 cm, a une forme étoilée. Elle possède 5 sépales surmontés de 5 pétales pointus et velus, de couleur blanche, rose-violacé ou rose, ou encore un mélange de ces trois couleurs. Les organes reproducteurs forment une colonne centrale portant 5 capuchons blancs, grossièrement sphériques[1].
-Le fruit est une capsule de 7,5 cm de long, duveteux, qui contient de nombreux akènes reliés à une soie leur permettant d'être soulevés et emportés par le vent.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante se présente sous la forme de tiges lisses, rampantes, contenant un latex de couleur laiteuse. Ces tiges peuvent atteindre 3 m de longueur et grimpent souvent sur les buissons alentour. Les feuilles, d'environ 6 ou 6,5 cm de long, sont opposées. Assez étroites, ces feuilles peuvent être lancéolées ou presque triangulaires et présentent, près de leur base, une ou plusieurs glandes situées sur la nervure centrale.
 </t>
         </is>
       </c>
@@ -545,10 +558,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre avril et août.
+L'inflorescence est une ombelle pouvant atteindre 10 cm de diamètre. Chaque fleur, d'un diamètre de 1 à 1,5 cm, a une forme étoilée. Elle possède 5 sépales surmontés de 5 pétales pointus et velus, de couleur blanche, rose-violacé ou rose, ou encore un mélange de ces trois couleurs. Les organes reproducteurs forment une colonne centrale portant 5 capuchons blancs, grossièrement sphériques.
+Le fruit est une capsule de 7,5 cm de long, duveteux, qui contient de nombreux akènes reliés à une soie leur permettant d'être soulevés et emportés par le vent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Funastrum_cynanchoides</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Funastrum_cynanchoides</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition de cette espèce couvre une partie du Mexique et du sud-ouest des États-Unis (Californie, Utah, Oklahoma et Texas).
 Elle pousse principalement dans les zones désertiques, mais on peut la voir aussi dans des plaines ou zones broussailleuses arides.
